--- a/biology/Zoologie/Infestation_(film)/Infestation_(film).xlsx
+++ b/biology/Zoologie/Infestation_(film)/Infestation_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Infestation est un film d'horreur américain réalisé par Kyle Rankin et diffusé le 8 août 2009 sur Syfy.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur son lieu de travail, Cooper se réveille enveloppé dans un cocon géant. Il découvre que la ville est envahie d'insectes géants tueurs. Avec un petit groupe de survivants, Cooper tente d'échapper aux envahisseurs pour mieux les combattre.
 Ambiance décontractée pour cette comédie de science-fiction horrifique dans la lignée d’Arachnophobie et Arac Attack.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Kyle Rankin
 Scénario : Kyle Rankin
@@ -552,7 +568,7 @@
 Pays d'origine : États-Unis
 Durée : 91 minutes
 Genre cinématographique : comédie horrifique
-Lien de tournage : Sofia en Bulgarie[1]</t>
+Lien de tournage : Sofia en Bulgarie</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chris Marquette (VF : Cyril Aubin) : Cooper
 Brooke Nevin : Sara
